--- a/Data/Input/Phone Number.xlsx
+++ b/Data/Input/Phone Number.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajame\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\RoboticEnterpriseFramework_Gti1\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8577370-7133-47C7-AA56-CF1E0EF54C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB48BDC-E1E5-45B3-91D2-A1D8FCE4E40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Moayed Abu Ajameih</t>
+  </si>
+  <si>
+    <t>962 7 9848 0200</t>
+  </si>
+  <si>
+    <t>Mohannad Abu Ajameih</t>
   </si>
 </sst>
 </file>
@@ -370,16 +376,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6CCF98-8911-4519-93AE-21A7BAA9E4B8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -398,6 +404,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Input/Phone Number.xlsx
+++ b/Data/Input/Phone Number.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\RoboticEnterpriseFramework_Gti1\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB48BDC-E1E5-45B3-91D2-A1D8FCE4E40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2988086C-CB8D-4EBA-BDC2-DEF374BE650A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Group1" sheetId="2" r:id="rId1"/>
+    <sheet name="Group2" sheetId="5" r:id="rId2"/>
+    <sheet name="Text" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +45,12 @@
   </si>
   <si>
     <t>Mohannad Abu Ajameih</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Test,Test مرحبا</t>
   </si>
 </sst>
 </file>
@@ -378,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6CCF98-8911-4519-93AE-21A7BAA9E4B8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -415,4 +423,66 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E196BE11-C017-4C60-BB8D-0C2F4B82F04F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="44.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58F81AC-1F10-464F-B1A2-7BA2D2B2F7FA}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Input/Phone Number.xlsx
+++ b/Data/Input/Phone Number.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\RoboticEnterpriseFramework_Gti1\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2988086C-CB8D-4EBA-BDC2-DEF374BE650A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F75CF1-436E-4745-B89B-E588060D520D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     <t>Text</t>
   </si>
   <si>
-    <t>Test,Test مرحبا</t>
+    <t>hello. How are you</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -462,23 +462,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58F81AC-1F10-464F-B1A2-7BA2D2B2F7FA}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Data/Input/Phone Number.xlsx
+++ b/Data/Input/Phone Number.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\RoboticEnterpriseFramework_Gti1\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F75CF1-436E-4745-B89B-E588060D520D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D7A20C-5C24-44AE-8DCB-2520B69EC44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group1" sheetId="2" r:id="rId1"/>
     <sheet name="Group2" sheetId="5" r:id="rId2"/>
-    <sheet name="Text" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -45,12 +44,6 @@
   </si>
   <si>
     <t>Mohannad Abu Ajameih</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>hello. How are you</t>
   </si>
 </sst>
 </file>
@@ -386,8 +379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6CCF98-8911-4519-93AE-21A7BAA9E4B8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -458,33 +451,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58F81AC-1F10-464F-B1A2-7BA2D2B2F7FA}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/Input/Phone Number.xlsx
+++ b/Data/Input/Phone Number.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\RoboticEnterpriseFramework_Gti1\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\REF_WhatsApp\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D7A20C-5C24-44AE-8DCB-2520B69EC44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB847DD-5311-4279-B37E-D545F79F2DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,16 +34,16 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>9627 8190 1622</t>
-  </si>
-  <si>
-    <t>Moayed Abu Ajameih</t>
-  </si>
-  <si>
     <t>962 7 9848 0200</t>
   </si>
   <si>
     <t>Mohannad Abu Ajameih</t>
+  </si>
+  <si>
+    <t>966 54 334 3500</t>
+  </si>
+  <si>
+    <t>Mohannad Abu Ajameih KSA</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -399,18 +399,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -423,7 +423,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
